--- a/public/downloads/excel/PoE_Bulk_Upload.xlsx
+++ b/public/downloads/excel/PoE_Bulk_Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/imu/public/downloads/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32AB26-956B-6749-B2AB-DB0258FA3E45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E988D-33FD-7D49-A080-77342B99D428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33500" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4126,8 +4126,8 @@
   <dimension ref="A1:AR501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F498" sqref="F498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4389,7 +4389,6 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -22771,16 +22770,13 @@
       <c r="AI501" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oBVZp9D6jwhlBIJpv3Mcan8cG81Dx2dpGxtS1Muf/1ml83h8Vv+x0MQ3i5NkYy8qioSwni5aP0wPCxeEezURgw==" saltValue="z5pdsjWG5tVxwXNQfAw9tQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
   <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Spelling Mistake" error="Select from dropdown" sqref="M2:M501" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Province</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please read this" error="Please enter date in YYYY-MM-DD format in A.D._x000a_Note: Month &amp; Day should contain leading 0 if 1 digit._x000a_eg: 2021-09-01" sqref="A2:A501 AH2:AH500 AI499:AI501 AI2:AI497" xr:uid="{65688662-FD7A-774D-A2B1-65C6B49859E3}">
       <formula1>IF(AND(ISNUMBER(VALUE(MID(A2,1,4))),ISNUMBER(VALUE(MID(A2,6,2))),ISNUMBER(VALUE(MID(A2,9,2))),MID(A2,5,1)="-",MID(A2,8,1)="-",LEN(A2)=10),TRUE)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E501" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Male, Female, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F501" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Front Line Health Worker,Doctor,Nurse,Police/Army,Business/Industry,Teacher/Student/Education,Civil Servant,Journalist,Agriculture,Transport/Delivery,Tourist,Migrant Worker,Other"</formula1>
@@ -22825,6 +22821,9 @@
       <formula1>Vaccines</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Only Yes/No" error="Select either &quot;Yes' or &quot;No&quot;" sqref="AG2:AG501" xr:uid="{1D80D6AB-3EDE-F84B-8D2E-BC33A405248D}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5 D6:D501" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Male, Female, Other"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
